--- a/biology/Virologie/Omsk_haemorrhagic_fever_virus/Omsk_haemorrhagic_fever_virus.xlsx
+++ b/biology/Virologie/Omsk_haemorrhagic_fever_virus/Omsk_haemorrhagic_fever_virus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Omsk hemorrhagic fever virus
 La fièvre hémorragique d’Omsk  est une fièvre hémorragique virale provoquée par une espèce de Flavivirus appelée Omsk hemorrhagic fever virus. Elle est ainsi nommée depuis une épidémie survenue à Omsk.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie a été décrite dès 1941 dans la région d'Omsk[2] et reçoit son nom actuel à partir de 1948[3]. La responsabilité de certaines tiques a été suggérée au début des années 1950[4] et celle du rat musqué une décennie plus tard[5].
-L'origine virale de l'atteinte est suspectée dès la fin des années 1940[2].
-Le rat musqué n'est cependant pas un animal traditionnel en Sibérie et a été importé du Canada à partir de la fin des années 1920 et la dissémination du virus a probablement été facilité par l'introduction de cet animal[2].
-Le virus a été découvert par Mikhaïl Tchoumakov[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie a été décrite dès 1941 dans la région d'Omsk et reçoit son nom actuel à partir de 1948. La responsabilité de certaines tiques a été suggérée au début des années 1950 et celle du rat musqué une décennie plus tard.
+L'origine virale de l'atteinte est suspectée dès la fin des années 1940.
+Le rat musqué n'est cependant pas un animal traditionnel en Sibérie et a été importé du Canada à partir de la fin des années 1920 et la dissémination du virus a probablement été facilité par l'introduction de cet animal.
+Le virus a été découvert par Mikhaïl Tchoumakov.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Virologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus responsable est un flavivirus proche du virus de l'encéphalite à tiques[7]. Il est constitué d'un génome à ARN entouré d'une capside. Trois sérotypes différents ont été identifiées[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus responsable est un flavivirus proche du virus de l'encéphalite à tiques. Il est constitué d'un génome à ARN entouré d'une capside. Trois sérotypes différents ont été identifiées.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie a été principalement signalée dans certaines régions de Sibérie occidentale : Omsk, Novossibirsk, Kourgan et Tioumen : 240 cas entre 1989 et 1998 surtout chez des trappeurs de rats musqués.
 En plus de la transmission directe de l’animal à l’homme, la survenue saisonnière de la maladie coïncidant avec l’activité du vecteur supposé (l’été) accrédite l’hypothèse du rôle des tiques (Dermacentor reticulatus et D. marginatus, Ixodes persulcatus)  qui inoculeraient le virus par leur piqûre.
@@ -610,7 +628,9 @@
           <t>Cycle biologique de la tique et transmission du virus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La tique traverse trois stades de développement durant environ 1 an et le virus peut être transmis à tous les stades.
 Les tiques hibernent de préférence dans les sous-bois humides, près des cours d’eau. La femelle pond des centaines d’œufs qui peuvent déjà être infectés. Les larves à six pattes issues des œufs font leur premier repas de sang dès les premières journées chaudes du printemps, attendant leur victime sur un brin d’herbe elles les accrochent au passage. Au cours de leur repas, elles peuvent transmettre le virus à leur hôte (un petit animal : souris, écureuil, etc.) ou au contraire s’infecter si leur victime est porteuse du virus.
@@ -644,7 +664,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une incubation de 3 à 8 jours, apparition de fièvre, frissons, céphalées, douleurs musculaires ainsi qu’un état de prostration intense avec éruption papulovésiculeuse, adénopathies cervicales.
 Après une à deux semaines, apparition de signes d’atteinte du système nerveux central.
@@ -677,7 +699,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’existe aucun traitement spécifique.
 </t>
@@ -708,7 +732,9 @@
           <t>Prophylaxie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Un vaccin préparé à partir d’encéphale de souris inactivé au formol existe mais il n’est pas commercialisé.
 Pour éviter les piqûres et l'infection par les tiques, les experts conseillent les précautions suivantes :
